--- a/data/trans_orig/MOL_RUIDO_OCIO_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_DIA-Clase-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,404 +457,439 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del ocio durante el día en el interior de la vivienda (tasa de respuesta: 99,63%)</t>
+          <t>Molestia del ruido del ocio durante el día en el interior de la vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Grupo I y II</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>2.684874677030842</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2.684458547312373</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.684664234623282</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 2,98</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 2,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 2,88</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.394813696350344</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2.409973965395532</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.483005038108289</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.977422328220293</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>2.969674917708444</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.875332185888545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Grupo III</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 3,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 2,96</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 3,0</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>2.885856831785496</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>2.617352890201431</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.73123737763712</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2.523127934443928</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.302792747084648</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.473194997160118</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>3.350831907232669</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>2.959948603320484</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>3.004362660521517</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Grupo IV y V</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 2,34</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 2,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 2,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>1.8834973480326</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1.847247445652758</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.869898122768784</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1.476931411995562</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1.334266249276905</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1.565371212900125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2.338509719578841</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.42675186782213</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2.223613003675411</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Grupo VI</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 2,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,92; 2,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 2,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>2.255570855855031</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>2.28233632173822</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2.268750090123316</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1.861444215859296</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1.923514774942414</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2.013492550756077</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2.633521754628681</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>2.764978419488472</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>2.608593011565019</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Grupo VII</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 3,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 2,42</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,78; 2,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>2.683422481590165</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1.91462362121564</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>2.19397514680769</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1.898581336956601</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1.438141211623352</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1.777435920209885</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>3.742280596050763</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>2.424736069840955</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>2.766553636814297</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>No ha trabajado</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 3,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 2,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,8; 2,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>2.360442919612258</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>2.098982435610267</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>2.19624807171404</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1.566358517520194</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1.626899804340182</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1.797242554531047</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>3.318712365405973</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>2.742269504952791</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>2.732856026439802</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 2,66</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 2,56</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 2,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>2.488875890346593</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>2.376594572856563</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>2.429915112537305</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>2.2854257626961</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>2.21252875763806</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>2.32218148737496</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>2.660290605342596</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>2.559514755746649</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>2.550787824049238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -902,14 +897,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
